--- a/E-Commerce Website/Inventory.xlsx
+++ b/E-Commerce Website/Inventory.xlsx
@@ -55,7 +55,7 @@
     <t>Reimagined classics, iconic Calvin. Designed with an archive-inspired logo, this Calvin Klein sweatshirt features a plush cotton knit fleece blend for premium, all-day comfort. Designed with drop shoulders for a relaxed fit.</t>
   </si>
   <si>
-    <t>Black Beauty</t>
+    <t>Black Beauty,Brilliant White</t>
   </si>
   <si>
     <t>The North Face</t>
@@ -67,7 +67,7 @@
     <t>The Men’s Alta Vista Jacket, made with 100% recycled fabrics, will quickly become your go-to hike shell. With a water-repellent finish and technical features like an adjustable hood, pit-zip venting, and a secure-zip pocket, it’ll take your trail exploration to the next level.</t>
   </si>
   <si>
-    <t>TNF Black</t>
+    <t>Meld Grey,TNF Black</t>
   </si>
   <si>
     <t>Adidas</t>
@@ -81,7 +81,7 @@
 Our cotton products support more sustainable cotton farming.</t>
   </si>
   <si>
-    <t>Black</t>
+    <t>Medium Grey Heather,Black</t>
   </si>
   <si>
     <t>Nike</t>
@@ -110,19 +110,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -158,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -172,14 +166,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -187,11 +175,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,19 +486,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +530,8 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="312">
-      <c r="A2" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="337.5">
+      <c r="A2" s="1">
         <v>734565</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -555,8 +540,8 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
-        <v>69.5</v>
+      <c r="D2" s="5">
+        <v>70.5</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
@@ -564,21 +549,21 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="1">
         <v>12</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>12</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="1">
         <v>12</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="1">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="375.75">
-      <c r="A3" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="406.5">
+      <c r="A3" s="1">
         <v>364134</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -587,7 +572,7 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>140</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -596,21 +581,21 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="1">
         <v>10</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="477.75">
-      <c r="A4" s="5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="544.5">
+      <c r="A4" s="1">
         <v>234544</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -620,29 +605,29 @@
         <v>19</v>
       </c>
       <c r="D4" s="1">
-        <v>69.9</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>15</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <v>15</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="1">
         <v>15</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1">
         <v>890585</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -657,8 +642,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1">
         <v>564646</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -673,8 +658,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1">
         <v>245643</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -689,8 +674,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1">
         <v>834654</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -705,8 +690,8 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1">
         <v>736455</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -721,8 +706,8 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1">
         <v>562344</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -737,8 +722,8 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1">
         <v>823466</v>
       </c>
       <c r="B11" s="2" t="s">

--- a/E-Commerce Website/Inventory.xlsx
+++ b/E-Commerce Website/Inventory.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C552A34-AEB4-4C13-8BFF-95394E447618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Men"/>
+    <sheet name="Men" sheetId="1" r:id="rId1"/>
+    <sheet name="Women" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -103,13 +110,39 @@
   </si>
   <si>
     <t>Michael Kors</t>
+  </si>
+  <si>
+    <t>Black - Pale Ivory,Pale Ivory/Malachite</t>
+  </si>
+  <si>
+    <t>Men's Dri-FIT Reversible 6" Basketball Shorts</t>
+  </si>
+  <si>
+    <t>To fully understand Giannis Antetokounmpo's greatness, you have to understand where he came from. From his roots in Nigeria to growing up in Greece, we show that journey on these Giannis shorts. Native flowers display his connection to both countries, while the intertwining stems represent growth. Designed with signature Freak details and a reversible design, these shorts celebrate his journey from All-Star to MVP to champion.</t>
+  </si>
+  <si>
+    <t>Flannel Long Sleeve Shirt - Tennessee</t>
+  </si>
+  <si>
+    <t>Flannel Long Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>UT - Solarize Plaid,ND - Fuse Green Plaid</t>
+  </si>
+  <si>
+    <t>514™ STRAIGHT FIT LEVI’S® FLEX MEN'S JEANS</t>
+  </si>
+  <si>
+    <t>Looking for a fit that's not too relaxed and not too straight? You're in luck—the Levi's® Men's 514™ Straight Jeans hit that sweet spot. With their versatile, streamlined silhouette, they'll look just as good with a tee as they do with a button-up shirt.</t>
+  </si>
+  <si>
+    <t>Black,Dark Wash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,41 +185,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -197,10 +227,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -238,71 +268,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,7 +360,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -353,11 +383,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -366,13 +396,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -382,7 +412,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -391,7 +421,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,7 +430,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -408,10 +438,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -476,77 +506,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="337.5">
+    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>734565</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
-        <v>70.5</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1">
@@ -562,23 +591,23 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="406.5">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>364134</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>140</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1">
@@ -594,23 +623,23 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="544.5">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>234544</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>70</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="1">
@@ -626,113 +655,153 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>890585</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>564646</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>245643</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>834654</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>736455</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>562344</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>823466</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -740,5 +809,56 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE857D7-0D3F-4130-90A9-0A55D60BE1D3}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>